--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 09:44:37</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 11:34:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 11:34:01</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:28:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:28:43</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:52:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:52:51</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 01:01:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 01:01:40</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 01:28:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 01:28:51</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 01:46:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 01:46:49</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 01:55:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 01:55:28</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:10:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:10:18</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:28:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:28:52</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:40:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:40:08</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:49:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:49:26</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:57:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:57:43</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:18:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:18:36</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:41:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:41:17</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:53:23</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7691,7 +7691,7 @@
     <t>Dique Caffaro</t>
   </si>
   <si>
-    <t>Mineral do Brasil Ltda.</t>
+    <t>MINERAL DO BRASIL LTDA</t>
   </si>
   <si>
     <t>17.246.638/0001-00</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:53:23</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:03:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:03:21</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:22:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:22:14</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:32:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:32:57</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:41:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:41:58</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:51:15</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:59:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:59:53</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:23:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:23:52</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:42:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:42:25</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:53:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:53:57</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:02:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:02:49</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:24:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:24:58</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:36:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:36:37</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:45:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:45:51</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:54:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:54:52</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:06:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:06:24</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:30:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:30:58</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:44:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:44:48</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:53:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:53:25</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:01:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:01:57</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:20:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:20:30</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:31:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:31:00</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:40:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:40:40</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:49:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:49:55</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 09:00:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 09:00:58</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 09:29:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 09:29:43</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 10:09:30</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4646,7 +4646,7 @@
     <t>-50°04'12.554"</t>
   </si>
   <si>
-    <t>130.367.943,09</t>
+    <t>127.891.093,61</t>
   </si>
   <si>
     <t>BARRAGEM DO VIGIA</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 10:09:30</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 10:42:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 10:42:42</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 10:54:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 10:54:00</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:03:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:03:44</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:23:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:23:57</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:37:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:37:04</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:45:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:45:51</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 11:54:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 11:54:23</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:03:03</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -20732,13 +20732,13 @@
         <v>85</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O131" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q131" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:03:03</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:27:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:27:23</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:41:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:41:01</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:50:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:50:25</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 12:59:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 12:59:39</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 01:26:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 01:26:36</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 02:47:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 02:47:26</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:31:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:31:24</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:47:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:47:50</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 03:56:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 03:56:04</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:03:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221701.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:03:31</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:17:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221701.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:17:57</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:30:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:30:01</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:40:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:40:34</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:49:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:49:03</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 04:59:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 04:59:16</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:14:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:14:23</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:30:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:30:12</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:40:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:40:02</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:49:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -64911,13 +64911,13 @@
         <v>147</v>
       </c>
       <c r="N847" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O847" s="0" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="P847" s="0" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="Q847" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224901.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225801.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:49:01</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 05:58:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -64920,7 +64920,7 @@
         <v>31</v>
       </c>
       <c r="Q847" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="R847" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225801.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 05:58:01</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:12:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222601.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:12:29</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:26:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222601.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223501.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:26:08</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:35:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223501.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224401.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:35:32</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:44:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224401.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:44:22</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 06:52:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 06:52:55</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:01:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:01:17</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:20:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:20:29</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:33:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:33:17</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:42:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:42:43</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 07:51:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225101.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 07:51:39</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:00:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:00:31</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:20:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222001.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:20:32</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:33:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224301.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:33:42</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:43:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224301.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:43:30</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 08:52:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-01.xlsx
+++ b/sigbm_download_2022-12-01.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225201.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220101.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 01/12/2022 - 08:52:18</t>
+    <t>Informação extraída do SIGBM: 01/12/2022 - 09:01:08</t>
   </si>
   <si>
     <t>ID Barragem</t>
